--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I502"/>
+  <dimension ref="A1:I503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17956,6 +17956,41 @@
         <v>38083800</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I503" t="n">
+        <v>41245800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I503"/>
+  <dimension ref="A1:I504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17991,6 +17991,41 @@
         <v>41245800</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I504" t="n">
+        <v>47296400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I504"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18026,6 +18026,41 @@
         <v>47296400</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I505" t="n">
+        <v>17416100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18061,6 +18061,41 @@
         <v>17416100</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G506" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I506" t="n">
+        <v>16646800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18096,6 +18096,41 @@
         <v>16646800</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G507" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I507" t="n">
+        <v>21797000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I507"/>
+  <dimension ref="A1:I508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18131,6 +18131,41 @@
         <v>21797000</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G508" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I508" t="n">
+        <v>17735500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I508"/>
+  <dimension ref="A1:I509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18166,6 +18166,41 @@
         <v>17735500</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I509" t="n">
+        <v>38306300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I509"/>
+  <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18201,6 +18201,41 @@
         <v>38306300</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G510" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I510" t="n">
+        <v>15038200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:I511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18236,6 +18236,41 @@
         <v>15038200</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I511" t="n">
+        <v>11022700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I511"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18271,6 +18271,41 @@
         <v>11022700</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I512" t="n">
+        <v>14104800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I512"/>
+  <dimension ref="A1:I513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18306,6 +18306,41 @@
         <v>14104800</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I513" t="n">
+        <v>16098200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I513"/>
+  <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18341,6 +18341,41 @@
         <v>16098200</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G514" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I514" t="n">
+        <v>13731500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I514"/>
+  <dimension ref="A1:I516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18376,6 +18376,76 @@
         <v>13731500</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I515" t="n">
+        <v>8361500</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I516" t="n">
+        <v>16222700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I516"/>
+  <dimension ref="A1:I518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18446,6 +18446,76 @@
         <v>16222700</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G517" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I517" t="n">
+        <v>8982300</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I518" t="n">
+        <v>8724400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I518"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18516,6 +18516,41 @@
         <v>8724400</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I519" t="n">
+        <v>10503700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18551,6 +18551,41 @@
         <v>10503700</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I520" t="n">
+        <v>22414100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I520"/>
+  <dimension ref="A1:I521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18586,6 +18586,41 @@
         <v>22414100</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I521" t="n">
+        <v>11130300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I521"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18621,6 +18621,41 @@
         <v>11130300</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G522" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I522" t="n">
+        <v>12175100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I522"/>
+  <dimension ref="A1:I524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18656,6 +18656,76 @@
         <v>12175100</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G523" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I523" t="n">
+        <v>7865300</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I524" t="n">
+        <v>9278900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I524"/>
+  <dimension ref="A1:I525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18726,6 +18726,41 @@
         <v>9278900</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I525" t="n">
+        <v>6609600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I525"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18761,6 +18761,41 @@
         <v>6609600</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I526" t="n">
+        <v>7499500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I526"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16243,11 +16243,11 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -16261,28 +16261,28 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.315</v>
+        <v>0.39</v>
       </c>
       <c r="F454" t="n">
-        <v>0.315</v>
+        <v>0.39</v>
       </c>
       <c r="G454" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="H454" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="I454" t="n">
-        <v>1460100</v>
+        <v>1212900</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -16296,28 +16296,28 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0.295</v>
+        <v>0.385</v>
       </c>
       <c r="F455" t="n">
-        <v>0.305</v>
+        <v>0.385</v>
       </c>
       <c r="G455" t="n">
-        <v>0.29</v>
+        <v>0.375</v>
       </c>
       <c r="H455" t="n">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="I455" t="n">
-        <v>572100</v>
+        <v>1248600</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -16331,28 +16331,28 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="F456" t="n">
-        <v>0.32</v>
+        <v>0.395</v>
       </c>
       <c r="G456" t="n">
-        <v>0.295</v>
+        <v>0.37</v>
       </c>
       <c r="H456" t="n">
-        <v>0.315</v>
+        <v>0.38</v>
       </c>
       <c r="I456" t="n">
-        <v>2034100</v>
+        <v>4850500</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -16366,28 +16366,28 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>0.32</v>
+        <v>0.375</v>
       </c>
       <c r="F457" t="n">
-        <v>0.335</v>
+        <v>0.38</v>
       </c>
       <c r="G457" t="n">
-        <v>0.315</v>
+        <v>0.375</v>
       </c>
       <c r="H457" t="n">
-        <v>0.325</v>
+        <v>0.375</v>
       </c>
       <c r="I457" t="n">
-        <v>1980400</v>
+        <v>796600</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -16401,28 +16401,28 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0.33</v>
+        <v>0.375</v>
       </c>
       <c r="F458" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G458" t="n">
-        <v>0.32</v>
+        <v>0.335</v>
       </c>
       <c r="H458" t="n">
-        <v>0.325</v>
+        <v>0.335</v>
       </c>
       <c r="I458" t="n">
-        <v>698000</v>
+        <v>3381100</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -16439,7 +16439,7 @@
         <v>0.33</v>
       </c>
       <c r="F459" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="G459" t="n">
         <v>0.315</v>
@@ -16448,16 +16448,16 @@
         <v>0.32</v>
       </c>
       <c r="I459" t="n">
-        <v>756600</v>
+        <v>3973100</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16471,28 +16471,28 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0.315</v>
+        <v>0.325</v>
       </c>
       <c r="F460" t="n">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="G460" t="n">
-        <v>0.315</v>
+        <v>0.305</v>
       </c>
       <c r="H460" t="n">
-        <v>0.315</v>
+        <v>0.31</v>
       </c>
       <c r="I460" t="n">
-        <v>651500</v>
+        <v>2841100</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16506,28 +16506,28 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.315</v>
+        <v>0.305</v>
       </c>
       <c r="F461" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="G461" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="H461" t="n">
-        <v>0.315</v>
+        <v>0.29</v>
       </c>
       <c r="I461" t="n">
-        <v>468800</v>
+        <v>3975800</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16541,28 +16541,28 @@
         </is>
       </c>
       <c r="E462" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F462" t="n">
         <v>0.315</v>
       </c>
-      <c r="F462" t="n">
-        <v>0.335</v>
-      </c>
       <c r="G462" t="n">
-        <v>0.31</v>
+        <v>0.285</v>
       </c>
       <c r="H462" t="n">
-        <v>0.33</v>
+        <v>0.315</v>
       </c>
       <c r="I462" t="n">
-        <v>2112000</v>
+        <v>2127500</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16576,28 +16576,28 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0.335</v>
+        <v>0.315</v>
       </c>
       <c r="F463" t="n">
-        <v>0.34</v>
+        <v>0.315</v>
       </c>
       <c r="G463" t="n">
-        <v>0.325</v>
+        <v>0.29</v>
       </c>
       <c r="H463" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I463" t="n">
-        <v>2457900</v>
+        <v>1460100</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16611,28 +16611,28 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.33</v>
+        <v>0.295</v>
       </c>
       <c r="F464" t="n">
-        <v>0.35</v>
+        <v>0.305</v>
       </c>
       <c r="G464" t="n">
-        <v>0.325</v>
+        <v>0.29</v>
       </c>
       <c r="H464" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="I464" t="n">
-        <v>3676800</v>
+        <v>572100</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -16646,28 +16646,28 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>0.335</v>
+        <v>0.3</v>
       </c>
       <c r="F465" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="G465" t="n">
-        <v>0.33</v>
+        <v>0.295</v>
       </c>
       <c r="H465" t="n">
-        <v>0.35</v>
+        <v>0.315</v>
       </c>
       <c r="I465" t="n">
-        <v>7680700</v>
+        <v>2034100</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -16681,28 +16681,28 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>0.355</v>
+        <v>0.32</v>
       </c>
       <c r="F466" t="n">
-        <v>0.36</v>
+        <v>0.335</v>
       </c>
       <c r="G466" t="n">
-        <v>0.34</v>
+        <v>0.315</v>
       </c>
       <c r="H466" t="n">
-        <v>0.34</v>
+        <v>0.325</v>
       </c>
       <c r="I466" t="n">
-        <v>2229100</v>
+        <v>1980400</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16716,28 +16716,28 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="F467" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="G467" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="H467" t="n">
-        <v>0.34</v>
+        <v>0.325</v>
       </c>
       <c r="I467" t="n">
-        <v>1411700</v>
+        <v>698000</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16751,28 +16751,28 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="F468" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="G468" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H468" t="n">
         <v>0.32</v>
       </c>
-      <c r="H468" t="n">
-        <v>0.325</v>
-      </c>
       <c r="I468" t="n">
-        <v>2829800</v>
+        <v>756600</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16786,28 +16786,28 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>0.325</v>
+        <v>0.315</v>
       </c>
       <c r="F469" t="n">
-        <v>0.325</v>
+        <v>0.32</v>
       </c>
       <c r="G469" t="n">
         <v>0.315</v>
       </c>
       <c r="H469" t="n">
-        <v>0.325</v>
+        <v>0.315</v>
       </c>
       <c r="I469" t="n">
-        <v>1422600</v>
+        <v>651500</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -16821,28 +16821,28 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
       <c r="F470" t="n">
         <v>0.32</v>
       </c>
       <c r="G470" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H470" t="n">
         <v>0.315</v>
       </c>
-      <c r="H470" t="n">
-        <v>0.32</v>
-      </c>
       <c r="I470" t="n">
-        <v>863400</v>
+        <v>468800</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16856,28 +16856,28 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>0.32</v>
+        <v>0.315</v>
       </c>
       <c r="F471" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="G471" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="H471" t="n">
         <v>0.33</v>
       </c>
       <c r="I471" t="n">
-        <v>1297100</v>
+        <v>2112000</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16894,25 +16894,25 @@
         <v>0.335</v>
       </c>
       <c r="F472" t="n">
-        <v>0.335</v>
+        <v>0.34</v>
       </c>
       <c r="G472" t="n">
-        <v>0.32</v>
+        <v>0.325</v>
       </c>
       <c r="H472" t="n">
-        <v>0.325</v>
+        <v>0.33</v>
       </c>
       <c r="I472" t="n">
-        <v>1183300</v>
+        <v>2457900</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16926,28 +16926,28 @@
         </is>
       </c>
       <c r="E473" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G473" t="n">
         <v>0.325</v>
       </c>
-      <c r="F473" t="n">
+      <c r="H473" t="n">
         <v>0.33</v>
       </c>
-      <c r="G473" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H473" t="n">
-        <v>0.325</v>
-      </c>
       <c r="I473" t="n">
-        <v>839200</v>
+        <v>3676800</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -16961,28 +16961,28 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>0.325</v>
+        <v>0.335</v>
       </c>
       <c r="F474" t="n">
-        <v>0.325</v>
+        <v>0.36</v>
       </c>
       <c r="G474" t="n">
-        <v>0.315</v>
+        <v>0.33</v>
       </c>
       <c r="H474" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I474" t="n">
-        <v>1498100</v>
+        <v>7680700</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16996,28 +16996,28 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>0.315</v>
+        <v>0.355</v>
       </c>
       <c r="F475" t="n">
-        <v>0.325</v>
+        <v>0.36</v>
       </c>
       <c r="G475" t="n">
-        <v>0.315</v>
+        <v>0.34</v>
       </c>
       <c r="H475" t="n">
-        <v>0.325</v>
+        <v>0.34</v>
       </c>
       <c r="I475" t="n">
-        <v>463200</v>
+        <v>2229100</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -17031,28 +17031,28 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>0.325</v>
+        <v>0.34</v>
       </c>
       <c r="F476" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="G476" t="n">
-        <v>0.325</v>
+        <v>0.34</v>
       </c>
       <c r="H476" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="I476" t="n">
-        <v>10899000</v>
+        <v>1411700</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -17066,28 +17066,28 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>0.37</v>
+        <v>0.335</v>
       </c>
       <c r="F477" t="n">
-        <v>0.38</v>
+        <v>0.335</v>
       </c>
       <c r="G477" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="H477" t="n">
-        <v>0.36</v>
+        <v>0.325</v>
       </c>
       <c r="I477" t="n">
-        <v>9879300</v>
+        <v>2829800</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -17101,28 +17101,28 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>0.36</v>
+        <v>0.325</v>
       </c>
       <c r="F478" t="n">
-        <v>0.38</v>
+        <v>0.325</v>
       </c>
       <c r="G478" t="n">
-        <v>0.345</v>
+        <v>0.315</v>
       </c>
       <c r="H478" t="n">
-        <v>0.375</v>
+        <v>0.325</v>
       </c>
       <c r="I478" t="n">
-        <v>7607100</v>
+        <v>1422600</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -17136,28 +17136,28 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>0.375</v>
+        <v>0.32</v>
       </c>
       <c r="F479" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="G479" t="n">
-        <v>0.37</v>
+        <v>0.315</v>
       </c>
       <c r="H479" t="n">
-        <v>0.375</v>
+        <v>0.32</v>
       </c>
       <c r="I479" t="n">
-        <v>3423500</v>
+        <v>863400</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -17171,28 +17171,28 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>0.365</v>
+        <v>0.32</v>
       </c>
       <c r="F480" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G480" t="n">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="H480" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="I480" t="n">
-        <v>3533400</v>
+        <v>1297100</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -17206,28 +17206,28 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>0.355</v>
+        <v>0.335</v>
       </c>
       <c r="F481" t="n">
-        <v>0.38</v>
+        <v>0.335</v>
       </c>
       <c r="G481" t="n">
-        <v>0.355</v>
+        <v>0.32</v>
       </c>
       <c r="H481" t="n">
-        <v>0.37</v>
+        <v>0.325</v>
       </c>
       <c r="I481" t="n">
-        <v>9919700</v>
+        <v>1183300</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -17241,28 +17241,28 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>0.375</v>
+        <v>0.325</v>
       </c>
       <c r="F482" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G482" t="n">
-        <v>0.375</v>
+        <v>0.32</v>
       </c>
       <c r="H482" t="n">
-        <v>0.385</v>
+        <v>0.325</v>
       </c>
       <c r="I482" t="n">
-        <v>19262000</v>
+        <v>839200</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -17276,28 +17276,28 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>0.39</v>
+        <v>0.325</v>
       </c>
       <c r="F483" t="n">
-        <v>0.39</v>
+        <v>0.325</v>
       </c>
       <c r="G483" t="n">
-        <v>0.38</v>
+        <v>0.315</v>
       </c>
       <c r="H483" t="n">
-        <v>0.385</v>
+        <v>0.32</v>
       </c>
       <c r="I483" t="n">
-        <v>2898700</v>
+        <v>1498100</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -17311,28 +17311,28 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>0.39</v>
+        <v>0.315</v>
       </c>
       <c r="F484" t="n">
-        <v>0.395</v>
+        <v>0.325</v>
       </c>
       <c r="G484" t="n">
-        <v>0.375</v>
+        <v>0.315</v>
       </c>
       <c r="H484" t="n">
-        <v>0.375</v>
+        <v>0.325</v>
       </c>
       <c r="I484" t="n">
-        <v>4007200</v>
+        <v>463200</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -17346,28 +17346,28 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.375</v>
+        <v>0.325</v>
       </c>
       <c r="F485" t="n">
-        <v>0.385</v>
+        <v>0.36</v>
       </c>
       <c r="G485" t="n">
-        <v>0.37</v>
+        <v>0.325</v>
       </c>
       <c r="H485" t="n">
-        <v>0.375</v>
+        <v>0.36</v>
       </c>
       <c r="I485" t="n">
-        <v>4008400</v>
+        <v>10899000</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -17381,28 +17381,28 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="F486" t="n">
-        <v>0.385</v>
+        <v>0.38</v>
       </c>
       <c r="G486" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="H486" t="n">
-        <v>0.375</v>
+        <v>0.36</v>
       </c>
       <c r="I486" t="n">
-        <v>1640000</v>
+        <v>9879300</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -17416,28 +17416,28 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="F487" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="G487" t="n">
-        <v>0.37</v>
+        <v>0.345</v>
       </c>
       <c r="H487" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="I487" t="n">
-        <v>3681100</v>
+        <v>7607100</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -17451,28 +17451,28 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
       </c>
       <c r="F488" t="n">
-        <v>0.385</v>
+        <v>0.38</v>
       </c>
       <c r="G488" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H488" t="n">
         <v>0.375</v>
       </c>
-      <c r="H488" t="n">
-        <v>0.38</v>
-      </c>
       <c r="I488" t="n">
-        <v>2342300</v>
+        <v>3423500</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -17486,28 +17486,28 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>0.38</v>
+        <v>0.365</v>
       </c>
       <c r="F489" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="G489" t="n">
-        <v>0.365</v>
+        <v>0.335</v>
       </c>
       <c r="H489" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="I489" t="n">
-        <v>2151000</v>
+        <v>3533400</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17521,28 +17521,28 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>0.37</v>
+        <v>0.355</v>
       </c>
       <c r="F490" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="G490" t="n">
         <v>0.355</v>
       </c>
       <c r="H490" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="I490" t="n">
-        <v>2410600</v>
+        <v>9919700</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17556,28 +17556,28 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>0.365</v>
+        <v>0.375</v>
       </c>
       <c r="F491" t="n">
-        <v>0.365</v>
+        <v>0.4</v>
       </c>
       <c r="G491" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="H491" t="n">
-        <v>0.365</v>
+        <v>0.385</v>
       </c>
       <c r="I491" t="n">
-        <v>2073600</v>
+        <v>19262000</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17591,28 +17591,28 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>0.365</v>
+        <v>0.39</v>
       </c>
       <c r="F492" t="n">
-        <v>0.365</v>
+        <v>0.39</v>
       </c>
       <c r="G492" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="H492" t="n">
-        <v>0.35</v>
+        <v>0.385</v>
       </c>
       <c r="I492" t="n">
-        <v>1910600</v>
+        <v>2898700</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17626,28 +17626,28 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="F493" t="n">
-        <v>0.35</v>
+        <v>0.395</v>
       </c>
       <c r="G493" t="n">
-        <v>0.33</v>
+        <v>0.375</v>
       </c>
       <c r="H493" t="n">
-        <v>0.345</v>
+        <v>0.375</v>
       </c>
       <c r="I493" t="n">
-        <v>1843800</v>
+        <v>4007200</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17661,28 +17661,28 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>0.345</v>
+        <v>0.375</v>
       </c>
       <c r="F494" t="n">
-        <v>0.36</v>
+        <v>0.385</v>
       </c>
       <c r="G494" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="H494" t="n">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="I494" t="n">
-        <v>1034700</v>
+        <v>4008400</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17696,28 +17696,28 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>0.365</v>
+        <v>0.375</v>
       </c>
       <c r="F495" t="n">
-        <v>0.365</v>
+        <v>0.385</v>
       </c>
       <c r="G495" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="H495" t="n">
-        <v>0.355</v>
+        <v>0.375</v>
       </c>
       <c r="I495" t="n">
-        <v>1594300</v>
+        <v>1640000</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -17731,28 +17731,28 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F496" t="n">
-        <v>0.355</v>
+        <v>0.39</v>
       </c>
       <c r="G496" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="H496" t="n">
-        <v>0.34</v>
+        <v>0.385</v>
       </c>
       <c r="I496" t="n">
-        <v>2798700</v>
+        <v>3681100</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17766,28 +17766,28 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>0.34</v>
+        <v>0.385</v>
       </c>
       <c r="F497" t="n">
         <v>0.385</v>
       </c>
       <c r="G497" t="n">
-        <v>0.33</v>
+        <v>0.375</v>
       </c>
       <c r="H497" t="n">
-        <v>0.385</v>
+        <v>0.38</v>
       </c>
       <c r="I497" t="n">
-        <v>6866000</v>
+        <v>2342300</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17801,28 +17801,28 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>0.395</v>
+        <v>0.38</v>
       </c>
       <c r="F498" t="n">
-        <v>0.465</v>
+        <v>0.38</v>
       </c>
       <c r="G498" t="n">
-        <v>0.395</v>
+        <v>0.365</v>
       </c>
       <c r="H498" t="n">
-        <v>0.465</v>
+        <v>0.37</v>
       </c>
       <c r="I498" t="n">
-        <v>42820700</v>
+        <v>2151000</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17836,28 +17836,28 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="F499" t="n">
-        <v>0.505</v>
+        <v>0.37</v>
       </c>
       <c r="G499" t="n">
-        <v>0.45</v>
+        <v>0.355</v>
       </c>
       <c r="H499" t="n">
-        <v>0.465</v>
+        <v>0.365</v>
       </c>
       <c r="I499" t="n">
-        <v>56311400</v>
+        <v>2410600</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17871,28 +17871,28 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.47</v>
+        <v>0.365</v>
       </c>
       <c r="F500" t="n">
-        <v>0.485</v>
+        <v>0.365</v>
       </c>
       <c r="G500" t="n">
-        <v>0.455</v>
+        <v>0.35</v>
       </c>
       <c r="H500" t="n">
-        <v>0.475</v>
+        <v>0.365</v>
       </c>
       <c r="I500" t="n">
-        <v>15677900</v>
+        <v>2073600</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -17906,28 +17906,28 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>0.47</v>
+        <v>0.365</v>
       </c>
       <c r="F501" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.365</v>
       </c>
       <c r="G501" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="H501" t="n">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="I501" t="n">
-        <v>94359900</v>
+        <v>1910600</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17941,28 +17941,28 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.535</v>
+        <v>0.35</v>
       </c>
       <c r="F502" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="G502" t="n">
-        <v>0.525</v>
+        <v>0.33</v>
       </c>
       <c r="H502" t="n">
-        <v>0.54</v>
+        <v>0.345</v>
       </c>
       <c r="I502" t="n">
-        <v>38083800</v>
+        <v>1843800</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17976,28 +17976,28 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>0.55</v>
+        <v>0.345</v>
       </c>
       <c r="F503" t="n">
-        <v>0.585</v>
+        <v>0.36</v>
       </c>
       <c r="G503" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="H503" t="n">
-        <v>0.575</v>
+        <v>0.36</v>
       </c>
       <c r="I503" t="n">
-        <v>41245800</v>
+        <v>1034700</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -18011,28 +18011,28 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>0.575</v>
+        <v>0.365</v>
       </c>
       <c r="F504" t="n">
-        <v>0.6</v>
+        <v>0.365</v>
       </c>
       <c r="G504" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="H504" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.355</v>
       </c>
       <c r="I504" t="n">
-        <v>47296400</v>
+        <v>1594300</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -18046,28 +18046,28 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
       <c r="F505" t="n">
-        <v>0.58</v>
+        <v>0.355</v>
       </c>
       <c r="G505" t="n">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
       <c r="H505" t="n">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="I505" t="n">
-        <v>17416100</v>
+        <v>2798700</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -18081,28 +18081,28 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="F506" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.385</v>
       </c>
       <c r="G506" t="n">
-        <v>0.545</v>
+        <v>0.33</v>
       </c>
       <c r="H506" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.385</v>
       </c>
       <c r="I506" t="n">
-        <v>16646800</v>
+        <v>6866000</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -18116,28 +18116,28 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.395</v>
       </c>
       <c r="F507" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.465</v>
       </c>
       <c r="G507" t="n">
-        <v>0.515</v>
+        <v>0.395</v>
       </c>
       <c r="H507" t="n">
-        <v>0.52</v>
+        <v>0.465</v>
       </c>
       <c r="I507" t="n">
-        <v>21797000</v>
+        <v>42820700</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -18151,28 +18151,28 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>0.515</v>
+        <v>0.47</v>
       </c>
       <c r="F508" t="n">
-        <v>0.54</v>
+        <v>0.505</v>
       </c>
       <c r="G508" t="n">
-        <v>0.485</v>
+        <v>0.45</v>
       </c>
       <c r="H508" t="n">
-        <v>0.495</v>
+        <v>0.465</v>
       </c>
       <c r="I508" t="n">
-        <v>17735500</v>
+        <v>56311400</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -18186,28 +18186,28 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="F509" t="n">
-        <v>0.555</v>
+        <v>0.485</v>
       </c>
       <c r="G509" t="n">
-        <v>0.495</v>
+        <v>0.455</v>
       </c>
       <c r="H509" t="n">
-        <v>0.55</v>
+        <v>0.475</v>
       </c>
       <c r="I509" t="n">
-        <v>38306300</v>
+        <v>15677900</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -18221,28 +18221,28 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>0.555</v>
+        <v>0.47</v>
       </c>
       <c r="F510" t="n">
-        <v>0.555</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G510" t="n">
-        <v>0.515</v>
+        <v>0.46</v>
       </c>
       <c r="H510" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I510" t="n">
-        <v>15038200</v>
+        <v>94359900</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -18256,28 +18256,28 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>0.52</v>
+        <v>0.535</v>
       </c>
       <c r="F511" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="G511" t="n">
-        <v>0.51</v>
+        <v>0.525</v>
       </c>
       <c r="H511" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I511" t="n">
-        <v>11022700</v>
+        <v>38083800</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -18291,28 +18291,28 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="F512" t="n">
-        <v>0.5</v>
+        <v>0.585</v>
       </c>
       <c r="G512" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="H512" t="n">
-        <v>0.475</v>
+        <v>0.575</v>
       </c>
       <c r="I512" t="n">
-        <v>14104800</v>
+        <v>41245800</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -18326,28 +18326,28 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>0.465</v>
+        <v>0.575</v>
       </c>
       <c r="F513" t="n">
-        <v>0.515</v>
+        <v>0.6</v>
       </c>
       <c r="G513" t="n">
-        <v>0.455</v>
+        <v>0.55</v>
       </c>
       <c r="H513" t="n">
-        <v>0.5</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I513" t="n">
-        <v>16098200</v>
+        <v>47296400</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -18361,28 +18361,28 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>0.495</v>
+        <v>0.57</v>
       </c>
       <c r="F514" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="G514" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="H514" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="I514" t="n">
-        <v>13731500</v>
+        <v>17416100</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -18396,28 +18396,28 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="F515" t="n">
-        <v>0.5</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G515" t="n">
-        <v>0.46</v>
+        <v>0.545</v>
       </c>
       <c r="H515" t="n">
-        <v>0.465</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I515" t="n">
-        <v>8361500</v>
+        <v>16646800</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -18431,28 +18431,28 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0.455</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F516" t="n">
-        <v>0.455</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G516" t="n">
-        <v>0.4</v>
+        <v>0.515</v>
       </c>
       <c r="H516" t="n">
-        <v>0.425</v>
+        <v>0.52</v>
       </c>
       <c r="I516" t="n">
-        <v>16222700</v>
+        <v>21797000</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -18466,28 +18466,28 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>0.41</v>
+        <v>0.515</v>
       </c>
       <c r="F517" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="G517" t="n">
-        <v>0.4</v>
+        <v>0.485</v>
       </c>
       <c r="H517" t="n">
-        <v>0.435</v>
+        <v>0.495</v>
       </c>
       <c r="I517" t="n">
-        <v>8982300</v>
+        <v>17735500</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -18501,28 +18501,28 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F518" t="n">
-        <v>0.45</v>
+        <v>0.555</v>
       </c>
       <c r="G518" t="n">
-        <v>0.405</v>
+        <v>0.495</v>
       </c>
       <c r="H518" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="I518" t="n">
-        <v>8724400</v>
+        <v>38306300</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18536,28 +18536,28 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>0.405</v>
+        <v>0.555</v>
       </c>
       <c r="F519" t="n">
-        <v>0.435</v>
+        <v>0.555</v>
       </c>
       <c r="G519" t="n">
-        <v>0.395</v>
+        <v>0.515</v>
       </c>
       <c r="H519" t="n">
-        <v>0.415</v>
+        <v>0.52</v>
       </c>
       <c r="I519" t="n">
-        <v>10503700</v>
+        <v>15038200</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18571,28 +18571,28 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>0.425</v>
+        <v>0.52</v>
       </c>
       <c r="F520" t="n">
-        <v>0.465</v>
+        <v>0.53</v>
       </c>
       <c r="G520" t="n">
-        <v>0.415</v>
+        <v>0.51</v>
       </c>
       <c r="H520" t="n">
-        <v>0.455</v>
+        <v>0.52</v>
       </c>
       <c r="I520" t="n">
-        <v>22414100</v>
+        <v>11022700</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -18606,28 +18606,28 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="F521" t="n">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="G521" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="H521" t="n">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="I521" t="n">
-        <v>11130300</v>
+        <v>14104800</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18641,28 +18641,28 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>0.405</v>
+        <v>0.465</v>
       </c>
       <c r="F522" t="n">
-        <v>0.41</v>
+        <v>0.515</v>
       </c>
       <c r="G522" t="n">
-        <v>0.345</v>
+        <v>0.455</v>
       </c>
       <c r="H522" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="I522" t="n">
-        <v>12175100</v>
+        <v>16098200</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18676,28 +18676,28 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>0.34</v>
+        <v>0.495</v>
       </c>
       <c r="F523" t="n">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="G523" t="n">
-        <v>0.335</v>
+        <v>0.49</v>
       </c>
       <c r="H523" t="n">
-        <v>0.375</v>
+        <v>0.49</v>
       </c>
       <c r="I523" t="n">
-        <v>7865300</v>
+        <v>13731500</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18711,28 +18711,28 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="F524" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G524" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="H524" t="n">
-        <v>0.36</v>
+        <v>0.465</v>
       </c>
       <c r="I524" t="n">
-        <v>9278900</v>
+        <v>8361500</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18746,53 +18746,368 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>0.35</v>
+        <v>0.455</v>
       </c>
       <c r="F525" t="n">
-        <v>0.35</v>
+        <v>0.455</v>
       </c>
       <c r="G525" t="n">
-        <v>0.325</v>
+        <v>0.4</v>
       </c>
       <c r="H525" t="n">
-        <v>0.325</v>
+        <v>0.425</v>
       </c>
       <c r="I525" t="n">
-        <v>6609600</v>
+        <v>16222700</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I526" t="n">
+        <v>8982300</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I527" t="n">
+        <v>8724400</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I528" t="n">
+        <v>10503700</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I529" t="n">
+        <v>22414100</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I530" t="n">
+        <v>11130300</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I531" t="n">
+        <v>12175100</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I532" t="n">
+        <v>7865300</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I533" t="n">
+        <v>9278900</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I534" t="n">
+        <v>6609600</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B526" t="inlineStr">
+      <c r="B535" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>0195</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>BINACOM</t>
-        </is>
-      </c>
-      <c r="E526" t="n">
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
         <v>0.3</v>
       </c>
-      <c r="F526" t="n">
+      <c r="F535" t="n">
         <v>0.335</v>
       </c>
-      <c r="G526" t="n">
+      <c r="G535" t="n">
         <v>0.285</v>
       </c>
-      <c r="H526" t="n">
+      <c r="H535" t="n">
         <v>0.315</v>
       </c>
-      <c r="I526" t="n">
+      <c r="I535" t="n">
         <v>7499500</v>
       </c>
     </row>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19111,6 +19111,41 @@
         <v>7499500</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I536" t="n">
+        <v>6220800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I536"/>
+  <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19146,6 +19146,41 @@
         <v>6220800</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I537" t="n">
+        <v>5352300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:I538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19181,6 +19181,41 @@
         <v>5352300</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I538" t="n">
+        <v>2849900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19216,6 +19216,41 @@
         <v>2849900</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I539" t="n">
+        <v>3819800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19251,6 +19251,41 @@
         <v>3819800</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I540" t="n">
+        <v>8827500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I540"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19286,6 +19286,41 @@
         <v>8827500</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I541" t="n">
+        <v>4713200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19321,6 +19321,41 @@
         <v>4713200</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I542" t="n">
+        <v>7815300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I542"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19356,6 +19356,41 @@
         <v>7815300</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I543" t="n">
+        <v>7763500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19391,6 +19391,41 @@
         <v>7763500</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I544" t="n">
+        <v>7516200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19426,6 +19426,41 @@
         <v>7516200</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I545" t="n">
+        <v>15761800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I545"/>
+  <dimension ref="A1:I546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19461,6 +19461,41 @@
         <v>15761800</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I546" t="n">
+        <v>6382600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I546"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19496,6 +19496,41 @@
         <v>6382600</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I547" t="n">
+        <v>8897800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I547"/>
+  <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19531,6 +19531,41 @@
         <v>8897800</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I548" t="n">
+        <v>12920900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19566,6 +19566,41 @@
         <v>12920900</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I549" t="n">
+        <v>7340500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19601,6 +19601,41 @@
         <v>7340500</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I550" t="n">
+        <v>5632700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I550"/>
+  <dimension ref="A1:I551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19636,6 +19636,41 @@
         <v>5632700</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I551" t="n">
+        <v>10291300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I551"/>
+  <dimension ref="A1:I552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19671,6 +19671,41 @@
         <v>10291300</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I552" t="n">
+        <v>12603400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I552"/>
+  <dimension ref="A1:I553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19706,6 +19706,41 @@
         <v>12603400</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I553" t="n">
+        <v>7687500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I553"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19741,6 +19741,41 @@
         <v>7687500</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I554" t="n">
+        <v>8192900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I554"/>
+  <dimension ref="A1:I555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19776,6 +19776,41 @@
         <v>8192900</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I555" t="n">
+        <v>4452500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I555"/>
+  <dimension ref="A1:I556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19811,6 +19811,41 @@
         <v>4452500</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I556" t="n">
+        <v>5349300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I556"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19846,6 +19846,41 @@
         <v>5349300</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I557" t="n">
+        <v>10436200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I557"/>
+  <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19881,6 +19881,41 @@
         <v>10436200</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I558" t="n">
+        <v>3670300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19916,6 +19916,41 @@
         <v>3670300</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I559" t="n">
+        <v>7650500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19951,6 +19951,41 @@
         <v>7650500</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I560" t="n">
+        <v>11452900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I560"/>
+  <dimension ref="A1:I562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19986,6 +19986,76 @@
         <v>11452900</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I561" t="n">
+        <v>12369400</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I562" t="n">
+        <v>10051800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20056,6 +20056,41 @@
         <v>10051800</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I563" t="n">
+        <v>16066200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I563"/>
+  <dimension ref="A1:I566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20091,6 +20091,111 @@
         <v>16066200</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I564" t="n">
+        <v>45784200</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I565" t="n">
+        <v>13712400</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I566" t="n">
+        <v>38220900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I566"/>
+  <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20196,6 +20196,41 @@
         <v>38220900</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I567" t="n">
+        <v>14244700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I567"/>
+  <dimension ref="A1:I568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20231,6 +20231,41 @@
         <v>14244700</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I568" t="n">
+        <v>8718700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0195.xlsx
+++ b/data/0195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I568"/>
+  <dimension ref="A1:I571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20266,6 +20266,111 @@
         <v>8718700</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I569" t="n">
+        <v>9359300</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I570" t="n">
+        <v>5000600</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>0195</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>BINACOM</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I571" t="n">
+        <v>12086500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
